--- a/Exercicio 2/NBPeformance.xlsx
+++ b/Exercicio 2/NBPeformance.xlsx
@@ -438,13 +438,13 @@
         <v>0.771423835571026</v>
       </c>
       <c r="E2">
-        <v>0.9347525573679846</v>
+        <v>0.5269039735099338</v>
       </c>
       <c r="F2">
-        <v>0.7473474801061007</v>
+        <v>0.8436050364479788</v>
       </c>
       <c r="G2">
-        <v>0.8306104901117799</v>
+        <v>0.6486624203821657</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,13 +461,13 @@
         <v>0.8131940991214984</v>
       </c>
       <c r="E3">
-        <v>0.8880511766049806</v>
+        <v>0.6153381642512077</v>
       </c>
       <c r="F3">
-        <v>0.8591954022988506</v>
+        <v>0.6752816434724983</v>
       </c>
       <c r="G3">
-        <v>0.8733850129198967</v>
+        <v>0.6439178515007898</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,13 +484,13 @@
         <v>0.7793800762473064</v>
       </c>
       <c r="E4">
-        <v>0.916731923779692</v>
+        <v>0.5404178019981835</v>
       </c>
       <c r="F4">
-        <v>0.7763041556145004</v>
+        <v>0.7886017229953611</v>
       </c>
       <c r="G4">
-        <v>0.8406941950927589</v>
+        <v>0.6413365669630827</v>
       </c>
     </row>
   </sheetData>
